--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1744796.842252</v>
+        <v>-1747373.163733242</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>267.3281989852829</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>193.7221264508597</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657076</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>29.90501741432598</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24.04388985475342</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>126.559710248387</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>134.6450032749296</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>101.3230871672197</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>125.8409794830816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,7 +990,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247742</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.31925561662728</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4.841227454979103</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.2083353502981</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>34.82037800654454</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.08168074437113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>52.0820738418284</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846222</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>205.9682521389964</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.33239976701798</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>28.23631843387943</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>166.3208822291524</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>41.55695577161238</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>34.6921136716486</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>77.39507264402586</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>83.53432244437134</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652607</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3080,7 +3080,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.363819949361</v>
+        <v>1832.276849100054</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.401303008949</v>
+        <v>1463.314332159642</v>
       </c>
       <c r="D2" t="n">
-        <v>1137.401303008949</v>
+        <v>1105.048633552891</v>
       </c>
       <c r="E2" t="n">
-        <v>751.613050410705</v>
+        <v>719.2603809546472</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>719.2603809546472</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>304.1879307996437</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250374</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013483</v>
+        <v>2218.876689164175</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.0448819111371</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C4" t="n">
-        <v>194.0448819111371</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>194.0448819111371</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>194.0448819111371</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>194.0448819111371</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>896.6002483891411</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>704.9143642159675</v>
+        <v>703.218457415726</v>
       </c>
       <c r="T4" t="n">
-        <v>483.1477487854935</v>
+        <v>703.218457415726</v>
       </c>
       <c r="U4" t="n">
-        <v>194.0448819111371</v>
+        <v>703.218457415726</v>
       </c>
       <c r="V4" t="n">
-        <v>194.0448819111371</v>
+        <v>703.218457415726</v>
       </c>
       <c r="W4" t="n">
-        <v>194.0448819111371</v>
+        <v>703.218457415726</v>
       </c>
       <c r="X4" t="n">
-        <v>194.0448819111371</v>
+        <v>567.2134036026657</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.0448819111371</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1168.124113652745</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
         <v>1168.124113652745</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2653.460376100163</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2300.691720830048</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.863285692679</v>
+        <v>1927.225962568968</v>
       </c>
       <c r="Y5" t="n">
-        <v>1554.723953716867</v>
+        <v>1537.086630593157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.6639240396553</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
         <v>163.8377936138381</v>
@@ -4720,10 +4720,10 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>900.362505195329</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>708.6766210221555</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>708.6766210221555</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>708.6766210221555</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122982</v>
+        <v>708.6766210221555</v>
       </c>
       <c r="W7" t="n">
-        <v>661.312388869895</v>
+        <v>708.6766210221555</v>
       </c>
       <c r="X7" t="n">
-        <v>661.312388869895</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="Y7" t="n">
-        <v>661.312388869895</v>
+        <v>480.6870701241381</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>852.2506193700647</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>441.2647145804571</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
         <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539437</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278357</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302545</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>511.2489900899278</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>511.2489900899278</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>511.2489900899278</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>363.3358965075347</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>216.4459490096243</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>541.6393785387522</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>313.6498276407349</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.85724849720478</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5118,16 +5118,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951537</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135277</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856208</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>550.6376870732851</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057719</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2238.914344045922</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1949.83911739012</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1695.154629184233</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243767</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
@@ -5300,28 +5300,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273909</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5537,25 +5537,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.9279362553159</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2418.441549808666</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2235.58671546357</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2015.985250486511</v>
       </c>
       <c r="U19" t="n">
-        <v>1809.460189369951</v>
+        <v>1726.910023830708</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.775701164064</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.358531127103</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.368980229086</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.5764010855556</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="23">
@@ -5975,43 +5975,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6139,10 +6139,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2009.464245195835</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1754.779756989948</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1465.362586952987</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1237.37303605497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958739</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C28" t="n">
-        <v>633.992644467967</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D28" t="n">
-        <v>633.992644467967</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>486.0795508855739</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1896033876635</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>171.9935041025435</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6598,28 +6598,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6686,46 +6686,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6792,10 +6792,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,7 +6874,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7166,43 +7166,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,19 +7570,19 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380734</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973197</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7606,7 +7606,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.33868158239</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,28 +7819,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>139.5478467564286</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>100.8856379364608</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>136.1207908447022</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>91.06465211410753</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462226</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>11.43719818829189</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.2522535850768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>38.13892827624223</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>119.8635921600917</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>24.81829093850928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>251.4923607175955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>62.899640202198</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1306073.214664305</v>
+        <v>1306073.214664306</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1306073.214664306</v>
+        <v>1306073.214664305</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1306073.214664305</v>
+        <v>1306073.214664306</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1306073.214664306</v>
+        <v>1306073.214664305</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1306073.214664306</v>
+        <v>1306073.214664305</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045139</v>
+        <v>99467.00901045144</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26329,19 +26329,19 @@
         <v>121071.9899535009</v>
       </c>
       <c r="H2" t="n">
-        <v>121071.9899535009</v>
+        <v>121071.989953501</v>
       </c>
       <c r="I2" t="n">
-        <v>121071.9899535009</v>
+        <v>121071.9899535008</v>
       </c>
       <c r="J2" t="n">
         <v>121071.9899535009</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26350,7 +26350,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363181</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020372</v>
+        <v>3456.426522020512</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405253</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687964</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687962</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.4992699731</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997306</v>
       </c>
       <c r="M4" t="n">
         <v>23427.49926997313</v>
       </c>
       <c r="N4" t="n">
+        <v>23427.4992699731</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23427.49926997309</v>
+      </c>
+      <c r="P4" t="n">
         <v>23427.49926997314</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23427.49926997312</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340668.103800555</v>
+        <v>-1341062.924741708</v>
       </c>
       <c r="C6" t="n">
-        <v>-78374.41918580336</v>
+        <v>-78374.41918580337</v>
       </c>
       <c r="D6" t="n">
-        <v>-78374.41918580334</v>
+        <v>-78374.41918580337</v>
       </c>
       <c r="E6" t="n">
-        <v>-320899.6416846412</v>
+        <v>-320934.3796100772</v>
       </c>
       <c r="F6" t="n">
-        <v>4512.820122714198</v>
+        <v>4478.082197278462</v>
       </c>
       <c r="G6" t="n">
-        <v>4512.8201227143</v>
+        <v>4478.082197278432</v>
       </c>
       <c r="H6" t="n">
-        <v>4512.820122714111</v>
+        <v>4478.082197278505</v>
       </c>
       <c r="I6" t="n">
-        <v>4512.820122714169</v>
+        <v>4478.082197278374</v>
       </c>
       <c r="J6" t="n">
-        <v>-213018.3822745633</v>
+        <v>-213053.120199999</v>
       </c>
       <c r="K6" t="n">
-        <v>-22863.06763787787</v>
+        <v>-22863.06763787793</v>
       </c>
       <c r="L6" t="n">
-        <v>-3435.349644246162</v>
+        <v>-3435.349644245987</v>
       </c>
       <c r="M6" t="n">
-        <v>-88490.37757975783</v>
+        <v>-88490.37757975784</v>
       </c>
       <c r="N6" t="n">
         <v>-3435.349644246016</v>
       </c>
       <c r="O6" t="n">
-        <v>-3435.349644245944</v>
+        <v>-3435.349644246089</v>
       </c>
       <c r="P6" t="n">
-        <v>-22863.06763787779</v>
+        <v>-22863.06763787789</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,34 +26802,34 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.88826281529391</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>63.20931508305488</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>226.4291713029152</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>243.8901211953874</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>68.61289705342006</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>281.6817708816119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.52550631318246</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>376.1013476469089</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.7502994375662</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>113.9437344171998</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.160357697336132e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-5.350800898672441e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>556.7959610899852</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312099</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,7 +32312,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32321,16 +32321,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>549.9198891312099</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>332.9841464938401</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236508</v>
@@ -32783,16 +32783,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197783</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33020,19 +33020,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34442,34 +34442,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>425.4542490066519</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867654</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,16 +35969,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>407.3236446867654</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753338</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753338</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,13 +36689,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,10 +38184,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
